--- a/Overall Stats/Strawberry/Strawberry Report.xlsx
+++ b/Overall Stats/Strawberry/Strawberry Report.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Strawberry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Strawberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803C6DA-2B6E-46C9-989A-E77F9BEF1081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0294A028-B1F7-48A0-B92B-D6EE96926CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="81">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -217,6 +212,66 @@
   </si>
   <si>
     <t>6 Cutthroat 1 Kokanee 1 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Strawberry</t>
+  </si>
+  <si>
+    <t>12 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>11 Cutthroat</t>
+  </si>
+  <si>
+    <t>20 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>3 Cutthroat 1 Kokanee 3 Rainbow</t>
+  </si>
+  <si>
+    <t>18 Cutthroat</t>
+  </si>
+  <si>
+    <t>30 Cutthroat 1 Kokanee</t>
+  </si>
+  <si>
+    <t>62 Cutthroat 1 Kokanee</t>
+  </si>
+  <si>
+    <t>33 Cutthroat</t>
+  </si>
+  <si>
+    <t>70 Cutthroat 1 Kokanee</t>
+  </si>
+  <si>
+    <t>50 Cutthroat</t>
+  </si>
+  <si>
+    <t>96 Cutthroat</t>
+  </si>
+  <si>
+    <t>57 Cutthroat</t>
+  </si>
+  <si>
+    <t>61 Cutthroat</t>
+  </si>
+  <si>
+    <t>47 Cutthroat 3 Rainbow</t>
+  </si>
+  <si>
+    <t>100 Cutthroat</t>
+  </si>
+  <si>
+    <t>118 Cutthroat 3 Rainbow</t>
+  </si>
+  <si>
+    <t>36 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>91 Cutthroat</t>
+  </si>
+  <si>
+    <t>85 Cutthroat 3 Rainbow</t>
   </si>
 </sst>
 </file>
@@ -335,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,16 +437,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -651,13 +709,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>935</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,13 +1155,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>95.799180327868854</c:v>
+                  <c:v>97.122302158273371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8442622950819672</c:v>
+                  <c:v>1.0551558752997603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3565573770491803</c:v>
+                  <c:v>1.8225419664268585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,22 +2801,22 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2812,12 +2870,12 @@
       <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2913,27 +2971,27 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3018,12 +3076,12 @@
       <c r="J5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3374,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D85487-2797-4F85-A7ED-72FEE81D374F}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,30 +3468,30 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3480,7 +3538,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
@@ -3512,7 +3570,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8">
@@ -3533,15 +3591,15 @@
       <c r="M5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="8"/>
@@ -3573,7 +3631,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8"/>
@@ -3608,7 +3666,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8"/>
@@ -3631,7 +3689,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8"/>
@@ -3654,7 +3712,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="8"/>
@@ -3677,7 +3735,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="8"/>
@@ -3700,7 +3758,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="8"/>
@@ -3723,7 +3781,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
@@ -3746,7 +3804,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="8"/>
@@ -3769,7 +3827,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="8"/>
@@ -3792,7 +3850,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="8"/>
@@ -3815,7 +3873,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
@@ -3838,7 +3896,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="8"/>
@@ -3861,7 +3919,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="8"/>
@@ -3887,7 +3945,7 @@
       <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="L20" s="10">
         <f>SUM(L4:L19)</f>
         <v>525</v>
@@ -3929,11 +3987,723 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5172C122-4144-4B91-9086-3C47FD59A76D}">
+  <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
+        <v>7</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1090</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4</v>
+      </c>
+      <c r="O4" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
+        <v>13</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
+        <v>7</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8">
+        <v>11</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="15">
+        <f>SUM(M4/$K$27*100)</f>
+        <v>98.286744815148779</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" ref="N7:O7" si="0">SUM(N4/$K$27*100)</f>
+        <v>0.36068530207394045</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" si="0"/>
+        <v>1.3525698827772767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
+        <v>21</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
+        <v>7</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
+        <v>31</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8">
+        <v>63</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
+        <v>33</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
+        <v>71</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
+        <v>50</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8">
+        <v>96</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
+        <v>18</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8">
+        <v>56</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8">
+        <v>57</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8">
+        <v>61</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <v>13</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8">
+        <v>50</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <v>27</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8">
+        <v>100</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
+        <v>6</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
+        <v>121</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
+        <v>7</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
+        <v>37</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
+        <v>91</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26" s="8">
+        <v>88</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="K27" s="10">
+        <f>SUM(K4:K26)</f>
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="11">
+        <f>AVERAGE(K4:K26)</f>
+        <v>48.217391304347828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365F3388-3A1B-4888-AE09-438B292F593B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3944,12 +4714,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3964,25 +4734,25 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>SUM('2017'!F4+'2018'!K4+'2019'!N4)</f>
-        <v>935</v>
+        <f>SUM('2017'!F4+'2018'!K4+'2019'!N4+'2020'!M4)</f>
+        <v>2025</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2018'!L4+'2019'!O4)</f>
-        <v>18</v>
+        <f>SUM('2018'!L4+'2019'!O4+'2020'!N4)</f>
+        <v>22</v>
       </c>
       <c r="C3" s="8">
-        <f>SUM('2017'!G4+'2018'!M4+'2019'!P4)</f>
-        <v>23</v>
+        <f>SUM('2017'!G4+'2018'!M4+'2019'!P4+'2020'!O4)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3998,15 +4768,15 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>SUM(A3/$B$8*100)</f>
-        <v>95.799180327868854</v>
+        <v>97.122302158273371</v>
       </c>
       <c r="B6" s="15">
         <f>SUM(B3/$B$8*100)</f>
-        <v>1.8442622950819672</v>
+        <v>1.0551558752997603</v>
       </c>
       <c r="C6" s="15">
         <f>SUM(C3/$B$8*100)</f>
-        <v>2.3565573770491803</v>
+        <v>1.8225419664268585</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4014,8 +4784,8 @@
         <v>31</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!D6+'2018'!I20+'2019'!L20)</f>
-        <v>976</v>
+        <f>SUM('2017'!D6+'2018'!I20+'2019'!L20+'2020'!K27)</f>
+        <v>2085</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4023,8 +4793,8 @@
         <v>32</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!D7+'2018'!I21+'2019'!L21)</f>
-        <v>34</v>
+        <f>SUM('2017'!D7+'2018'!I21+'2019'!L21+'2020'!K28)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4033,7 +4803,7 @@
       </c>
       <c r="B10" s="14">
         <f>SUM(B8/B9)</f>
-        <v>28.705882352941178</v>
+        <v>36.578947368421055</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Strawberry/Strawberry Report.xlsx
+++ b/Overall Stats/Strawberry/Strawberry Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Strawberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0294A028-B1F7-48A0-B92B-D6EE96926CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5812D6-1A1E-4637-8CDB-CC7485459250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
+    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3990,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5172C122-4144-4B91-9086-3C47FD59A76D}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -4702,7 +4702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365F3388-3A1B-4888-AE09-438B292F593B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/Strawberry/Strawberry Report.xlsx
+++ b/Overall Stats/Strawberry/Strawberry Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Strawberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5812D6-1A1E-4637-8CDB-CC7485459250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BF4F6-7958-4475-BE1A-C31E21AAEB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3990,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5172C122-4144-4B91-9086-3C47FD59A76D}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -4702,7 +4702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365F3388-3A1B-4888-AE09-438B292F593B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/Strawberry/Strawberry Report.xlsx
+++ b/Overall Stats/Strawberry/Strawberry Report.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Strawberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BF4F6-7958-4475-BE1A-C31E21AAEB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AFA7E9-D5B7-4CD8-96D9-DF717606A46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{D9BD4EE7-89B8-4A91-A9A0-DE855D7CC1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
     <sheet name="2020" sheetId="5" r:id="rId4"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId5"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="102">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -272,6 +280,69 @@
   </si>
   <si>
     <t>85 Cutthroat 3 Rainbow</t>
+  </si>
+  <si>
+    <t>28 Cutthroat</t>
+  </si>
+  <si>
+    <t>12 Cutthroat</t>
+  </si>
+  <si>
+    <t>21 Cutthroat 1 Kokanee</t>
+  </si>
+  <si>
+    <t>6 Cutthroat</t>
+  </si>
+  <si>
+    <t>13 Cutthroat 2 Rainbow</t>
+  </si>
+  <si>
+    <t>55 Cutthroat</t>
+  </si>
+  <si>
+    <t>36 Cutthroat</t>
+  </si>
+  <si>
+    <t>99 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>121 Cutthroat</t>
+  </si>
+  <si>
+    <t>102 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>111 Cutthroat</t>
+  </si>
+  <si>
+    <t>85 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>61 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>49 Cutthroat</t>
+  </si>
+  <si>
+    <t>62 Cutthroat</t>
+  </si>
+  <si>
+    <t>103 Cutthroat</t>
+  </si>
+  <si>
+    <t>49 Cutthroat 3 Rainbow</t>
+  </si>
+  <si>
+    <t>99 Cutthroat 7 Rainbow</t>
+  </si>
+  <si>
+    <t>37 Cutthroat 3 Rainbow</t>
+  </si>
+  <si>
+    <t>9 Cutthroat 3 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Strawberry</t>
   </si>
 </sst>
 </file>
@@ -390,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,10 +515,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,13 +789,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2025</c:v>
+                  <c:v>3482</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,13 +1235,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>97.122302158273371</c:v>
+                  <c:v>97.671809256661987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0551558752997603</c:v>
+                  <c:v>0.64516129032258063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8225419664268585</c:v>
+                  <c:v>1.6830294530154277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,22 +2881,22 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2870,12 +2950,12 @@
       <c r="E5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2971,27 +3051,27 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3076,12 +3156,12 @@
       <c r="J5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3468,30 +3548,30 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3591,12 +3671,12 @@
       <c r="M5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
@@ -3990,8 +4070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5172C122-4144-4B91-9086-3C47FD59A76D}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,29 +4107,29 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -4144,12 +4224,12 @@
       <c r="L5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -4699,11 +4779,778 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181AF6D-773F-48E2-A5AB-638BED91F4AE}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8">
+        <v>28</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1457</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8">
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8">
+        <v>6</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="15">
+        <f>SUM(N4/$L$29*100)</f>
+        <v>98.445945945945951</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" ref="O7:P7" si="0">SUM(O4/$L$29*100)</f>
+        <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="P7" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4864864864864866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8">
+        <v>15</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8">
+        <v>18</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <v>100</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
+        <v>55</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
+        <v>36</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8">
+        <v>100</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <v>2</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
+        <v>121</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8">
+        <v>103</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>22</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8">
+        <v>111</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>23</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8">
+        <v>61</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <v>5</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
+        <v>86</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <v>11</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
+        <v>62</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
+        <v>20</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
+        <v>70</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <v>25</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8">
+        <v>49</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <v>26</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8">
+        <v>62</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
+        <v>14</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
+        <v>103</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
+        <v>21</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8">
+        <v>50</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8">
+        <v>52</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8">
+        <v>20</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8">
+        <v>106</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
+        <v>28</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8">
+        <v>40</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8">
+        <v>29</v>
+      </c>
+      <c r="L28" s="8">
+        <v>12</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="L29" s="10">
+        <f>SUM(L4:L28)</f>
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="11">
+        <f>AVERAGE(L4:L28)</f>
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N5:Q5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365F3388-3A1B-4888-AE09-438B292F593B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4714,12 +5561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -4734,25 +5581,25 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>SUM('2017'!F4+'2018'!K4+'2019'!N4+'2020'!M4)</f>
-        <v>2025</v>
+        <f>SUM('2017'!F4+'2018'!K4+'2019'!N4+'2020'!M4+'2021'!N4)</f>
+        <v>3482</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2018'!L4+'2019'!O4+'2020'!N4)</f>
-        <v>22</v>
+        <f>SUM('2018'!L4+'2019'!O4+'2020'!N4+'2021'!O4)</f>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
-        <f>SUM('2017'!G4+'2018'!M4+'2019'!P4+'2020'!O4)</f>
-        <v>38</v>
+        <f>SUM('2017'!G4+'2018'!M4+'2019'!P4+'2020'!O4+'2021'!P4)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -4768,15 +5615,15 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f>SUM(A3/$B$8*100)</f>
-        <v>97.122302158273371</v>
+        <v>97.671809256661987</v>
       </c>
       <c r="B6" s="15">
         <f>SUM(B3/$B$8*100)</f>
-        <v>1.0551558752997603</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="C6" s="15">
         <f>SUM(C3/$B$8*100)</f>
-        <v>1.8225419664268585</v>
+        <v>1.6830294530154277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4784,8 +5631,8 @@
         <v>31</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!D6+'2018'!I20+'2019'!L20+'2020'!K27)</f>
-        <v>2085</v>
+        <f>SUM('2017'!D6+'2018'!I20+'2019'!L20+'2020'!K27+'2021'!L29)</f>
+        <v>3565</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4793,8 +5640,8 @@
         <v>32</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!D7+'2018'!I21+'2019'!L21+'2020'!K28)</f>
-        <v>57</v>
+        <f>SUM('2017'!D7+'2018'!I21+'2019'!L21+'2020'!K28+'2021'!L30)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -4803,7 +5650,7 @@
       </c>
       <c r="B10" s="14">
         <f>SUM(B8/B9)</f>
-        <v>36.578947368421055</v>
+        <v>43.475609756097562</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
